--- a/hw2/analysis/Book1.xlsx
+++ b/hw2/analysis/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyu/Dropbox/eecs224/EECS224/hw2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyu/Dropbox/eecs224/EECS224/hw2/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF18F6-C279-F742-B13C-F9D49D8BE8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F1688-1416-2443-94BA-3C8755FC4468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="1780" windowWidth="28040" windowHeight="14900" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
+    <workbookView xWindow="-4700" yWindow="-23540" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="22">
   <si>
     <t>Joe</t>
   </si>
@@ -41,6 +42,63 @@
   <si>
     <t>Master/Slave</t>
   </si>
+  <si>
+    <t>Susie's apporach - 2 processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 * 256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 * 512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024 * 1024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048 * 2048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4096 * 4096 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8192 * 8192 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16384 * 16384 </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Susie's</t>
+  </si>
+  <si>
+    <t>apporach</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>processes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Joe's</t>
+  </si>
+  <si>
+    <t>Master/slave</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
 </sst>
 </file>
 
@@ -49,13 +107,32 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF4A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +155,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +190,4056 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(32</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5724E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.03337E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.373664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9944000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.468299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8BA-5548-85E0-D61C9289ED5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$11:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.6558999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2753000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14366100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51471900000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9532099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3852500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.376100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8BA-5548-85E0-D61C9289ED5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$20:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.4295299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9753999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6341199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67227000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0387499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4753400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8BA-5548-85E0-D61C9289ED5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>rows)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(8</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>proccesses)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0775E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9599500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8263999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36110900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4559899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8116899999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.1999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FF-4F4D-98B8-88179784DDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$11:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8083999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0506799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19601099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78839400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1585299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.634399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.495899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46FF-4F4D-98B8-88179784DDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$20:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.3167400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1252000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9294800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38403599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5304500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1288999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46FF-4F4D-98B8-88179784DDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>rows)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>size</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>(2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>proccesses)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.1172800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3576499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33261400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3329599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3427800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.358699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.185000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7950-134B-B53B-15BDE3D636BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$11:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.1601700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4712499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33107799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3374600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.342600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.352500000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7950-134B-B53B-15BDE3D636BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$20:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$20:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.3338299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16662399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66269900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6419700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.5564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.391800000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7950-134B-B53B-15BDE3D636BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>rows)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>786425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361462</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>107460</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5795FDC3-55F2-774C-8BBC-CFAE00AB00BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405422</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C100F30C-601E-6848-AB34-70C4991C7B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>405423</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D3C321-D5C9-9843-9F17-7B00A7C37756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +4541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EEF89-191A-7A48-8643-E86E5BD9CFC5}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
@@ -623,4 +4767,2816 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CABE55-432E-FF4F-9BBA-D1252D1AEEEA}">
+  <dimension ref="A1:Q134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3.1172800000000001E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2">
+        <v>256</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.1172800000000001E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.59078E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.0775E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.7551500000000001E-2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2.5724E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>256</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5.5284300000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8.3576499999999998E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6">
+        <v>512</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8.3576499999999998E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5.5210500000000003E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.9599500000000001E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3.6071800000000001E-2</v>
+      </c>
+      <c r="N3" s="5">
+        <v>4.03337E-2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>512</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.20167399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.33261400000000002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.33261400000000002</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.16898299999999999</v>
+      </c>
+      <c r="L4" s="4">
+        <v>8.8263999999999995E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.116608</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.13056999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1024</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1.3329599999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.3329599999999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.67985200000000001</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.36110900000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.425983</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.373664</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2048</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.0670299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>5.3427800000000003</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2">
+        <v>4096</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5.3427800000000003</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.7398400000000001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.4559899999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1.39727</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1.14917</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4096</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12.166600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>21.358699999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2">
+        <v>8192</v>
+      </c>
+      <c r="J7" s="4">
+        <v>21.358699999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>10.9565</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5.8116899999999996</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5.2477200000000002</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3.9944000000000002</v>
+      </c>
+      <c r="P7" s="2">
+        <v>8192</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>48.4437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2">
+        <v>16384</v>
+      </c>
+      <c r="J8" s="4">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>43.6648</v>
+      </c>
+      <c r="L8" s="4">
+        <v>23.1999</v>
+      </c>
+      <c r="M8" s="5">
+        <v>19.469200000000001</v>
+      </c>
+      <c r="N8" s="5">
+        <v>15.468299999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>16384</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>193.202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>16</v>
+      </c>
+      <c r="N10" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>1.59078E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="2">
+        <v>256</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3.1601700000000003E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2.9584300000000001E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1.8083999999999999E-2</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2.51795E-2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2.6558999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>512</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>5.5210500000000003E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6">
+        <v>512</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8.4712499999999996E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>8.2452200000000003E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5.0506799999999998E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4.2610500000000003E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>5.2753000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1024</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>0.16898299999999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.33107799999999998</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.312635</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.19601099999999999</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.13623099999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.14366100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2048</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2048</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0.67985200000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2048</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.341</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.25223</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.78839400000000004</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.65439400000000003</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.51471900000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4096</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>4096</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2.7398400000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4096</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5.3374600000000001</v>
+      </c>
+      <c r="K15" s="5">
+        <v>5.01898</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3.1585299999999998</v>
+      </c>
+      <c r="M15" s="4">
+        <v>2.2832300000000001</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.9532099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>8192</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>10.9565</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8192</v>
+      </c>
+      <c r="J16" s="4">
+        <v>21.342600000000001</v>
+      </c>
+      <c r="K16" s="5">
+        <v>20.066299999999998</v>
+      </c>
+      <c r="L16" s="5">
+        <v>12.634399999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9.1329600000000006</v>
+      </c>
+      <c r="N16" s="5">
+        <v>6.3852500000000001</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16384</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>16384</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>43.6648</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16384</v>
+      </c>
+      <c r="J17" s="4">
+        <v>85.352500000000006</v>
+      </c>
+      <c r="K17" s="5">
+        <v>80.054500000000004</v>
+      </c>
+      <c r="L17" s="5">
+        <v>50.495899999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>35.646799999999999</v>
+      </c>
+      <c r="N17" s="5">
+        <v>24.376100000000001</v>
+      </c>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2">
+        <v>16</v>
+      </c>
+      <c r="N19" s="2">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>256</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>1.0775E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6">
+        <v>256</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5.3338299999999998E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1.8291499999999999E-2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>9.3167400000000004E-3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1.68138E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2.4295299999999999E-2</v>
+      </c>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>512</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2.9599500000000001E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6">
+        <v>512</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.16662399999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6.5399499999999999E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3.1252000000000002E-2</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2.7030499999999999E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2.9753999999999999E-2</v>
+      </c>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1024</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>1024</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>8.8263999999999995E-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1024</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.66269900000000004</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.22245500000000001</v>
+      </c>
+      <c r="L22" s="5">
+        <v>9.9294800000000003E-2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>6.8146499999999999E-2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>4.6341199999999999E-2</v>
+      </c>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2048</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>2048</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0.36110900000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2048</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.6419700000000002</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.88543799999999995</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.38403599999999999</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.217778</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.13099</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4096</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>4096</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>1.4559899999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6">
+        <v>4096</v>
+      </c>
+      <c r="J24" s="4">
+        <v>10.5564</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3.53464</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1.5304500000000001</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.81157999999999997</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.67227000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>8192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>5.8116899999999996</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="6">
+        <v>8192</v>
+      </c>
+      <c r="J25" s="4">
+        <v>42.391800000000003</v>
+      </c>
+      <c r="K25" s="4">
+        <v>14.149900000000001</v>
+      </c>
+      <c r="L25" s="5">
+        <v>6.1288999999999998</v>
+      </c>
+      <c r="M25" s="5">
+        <v>3.2166100000000002</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2.0387499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>16384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>16384</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>23.1999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="6">
+        <v>16384</v>
+      </c>
+      <c r="J26" s="4">
+        <v>168.8</v>
+      </c>
+      <c r="K26" s="4">
+        <v>56.406399999999998</v>
+      </c>
+      <c r="L26" s="5">
+        <v>24.372</v>
+      </c>
+      <c r="M26" s="5">
+        <v>12.7037</v>
+      </c>
+      <c r="N26" s="4">
+        <v>7.4753400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>256</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>1.7551500000000001E-2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>512</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>512</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>3.6071800000000001E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1024</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1024</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>0.116608</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2048</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>2048</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>0.425983</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4096</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>4096</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>1.39727</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>8192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>5.2477200000000002</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>16384</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>16384</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>19.469200000000001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>256</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>256</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>2.5724E-2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>512</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>4.03337E-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1024</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>1024</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40">
+        <v>0.13056999999999999</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2048</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>2048</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>0.373664</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4096</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>4096</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>1.14917</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>8192</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>3.9944000000000002</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>16384</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>16384</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>15.468299999999999</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>256</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>256</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>3.1601700000000003E-2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>512</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>512</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>8.4712499999999996E-2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>1024</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0.33107799999999998</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2048</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>2048</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50">
+        <v>1.341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4096</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>4096</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>5.3374600000000001</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>8192</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>21.342600000000001</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>16384</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>16384</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>85.352500000000006</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>256</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>2.9584300000000001E-2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>512</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>512</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>8.2452200000000003E-2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1024</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>1024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>0.312635</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2048</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>2048</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>1.25223</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4096</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>4096</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>5.01898</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>8192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>8192</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>20.066299999999998</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>16384</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>16384</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>80.054500000000004</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>256</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>256</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>1.8083999999999999E-2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>512</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>512</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>5.0506799999999998E-2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1024</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>1024</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>0.19601099999999999</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2048</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>2048</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>0.78839400000000004</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4096</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>4096</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>3.1585299999999998</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>8192</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>12.634399999999999</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>16384</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>16384</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>50.495899999999999</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>256</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>256</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>2.51795E-2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>512</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>512</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>4.2610500000000003E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1024</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>1024</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>0.13623099999999999</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2048</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77">
+        <v>2048</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>0.65439400000000003</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4096</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>4096</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>2.2832300000000001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>8192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>8192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>9.1329600000000006</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>16384</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>16384</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>35.646799999999999</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>256</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>256</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>2.6558999999999999E-2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>512</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>512</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>5.2753000000000001E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1024</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>1024</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>0.14366100000000001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2048</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>2048</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>0.51471900000000004</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4096</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87">
+        <v>4096</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>1.9532099999999999</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>8192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>8192</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>6.3852500000000001</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>16384</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>16384</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>24.376100000000001</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>256</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>256</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>5.3338299999999998E-2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>512</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>512</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>0.16662399999999999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1024</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>1024</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>0.66269900000000004</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2048</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>2048</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>2.6419700000000002</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>4096</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>4096</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>10.5564</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>8192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>42.391800000000003</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>16384</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98">
+        <v>16384</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>168.8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>256</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101">
+        <v>256</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>1.8291499999999999E-2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>512</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102">
+        <v>512</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>6.5399499999999999E-2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1024</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>1024</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>0.22245500000000001</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2048</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>2048</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>0.88543799999999995</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4096</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>4096</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>3.53464</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8192</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>8192</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>14.149900000000001</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16384</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>16384</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>56.406399999999998</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>256</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>9.3167400000000004E-3</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>512</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <v>512</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>3.1252000000000002E-2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1024</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112">
+        <v>1024</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>9.9294800000000003E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>2048</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>2048</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>0.38403599999999999</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>4096</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>4096</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>1.5304500000000001</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8192</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115">
+        <v>8192</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>6.1288999999999998</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>16384</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>16384</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>24.372</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>256</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>256</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>1.68138E-2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>512</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>512</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>2.7030499999999999E-2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1024</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>1024</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>6.8146499999999999E-2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2048</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>2048</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>0.217778</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>4096</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>4096</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>0.81157999999999997</v>
+      </c>
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>8192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>8192</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>3.2166100000000002</v>
+      </c>
+      <c r="F124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>16384</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125">
+        <v>16384</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>12.7037</v>
+      </c>
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>32</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>256</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>2.4295299999999999E-2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>512</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>512</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>2.9753999999999999E-2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1024</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130">
+        <v>1024</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>4.6341199999999999E-2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2048</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>2048</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>0.13099</v>
+      </c>
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>4096</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132">
+        <v>4096</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>0.67227000000000003</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8192</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>8192</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>2.0387499999999998</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>16384</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>16384</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>7.4753400000000001</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/hw2/analysis/Book1.xlsx
+++ b/hw2/analysis/Book1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyu/Dropbox/eecs224/EECS224/hw2/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05F1688-1416-2443-94BA-3C8755FC4468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2AD49-C21D-8048-A436-EFAC1141FA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-23540" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
+    <workbookView xWindow="-4700" yWindow="-23540" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="24">
   <si>
     <t>Joe</t>
   </si>
@@ -99,6 +100,12 @@
   <si>
     <t>Serial</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -155,9 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,7 +1052,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>proccesses)</a:t>
+              <a:t>processes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1811,7 +1820,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>proccesses)</a:t>
+              <a:t>processes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2496,6 +2505,2160 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>precesses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(Large</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98591888243235315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96170714167933902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90502006474165841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53922028126476695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33934522539645601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-720D-4649-B2C0-D9169E927A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$17:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98398406607890798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52455202393369516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41580356028905319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29450574806153712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21533771809272195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-720D-4649-B2C0-D9169E927A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$26:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49754443127962084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74446782634594655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86149577383883147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82638817824728239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70218796068138711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-720D-4649-B2C0-D9169E927A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>precesses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(Medium</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98463569799543882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96526891146896687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90864531208028598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38513274003892178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21952877451400191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64D0-F040-A693-A36435934FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$14:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97873228933631629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52405708216541691</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41618784516371254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25070523262743855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15936850980826431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64D0-F040-A693-A36435934FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$23:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49678081128854606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74114731917988619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85439906675415855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75333596598370822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62623101000076353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64D0-F040-A693-A36435934FAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>#</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>precesses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>(Small</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>image</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>size)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Susie</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6651888826156136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6517494562415922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48110904872389787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14767826111728341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0380481262634114E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-765D-1F42-8D70-9EAE8E2159FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Joe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$11:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.65616090273624506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35045277393752766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28665947799159475</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1029398915784666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8796547309763169E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-765D-1F42-8D70-9EAE8E2159FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Master/slave</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$P$1:$T$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38876004672064912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56681518738211734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55641243610962632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15415759673601445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3343136326779256E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-765D-1F42-8D70-9EAE8E2159FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1156387967"/>
+        <c:axId val="1249377711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1156387967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249377711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249377711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156387967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2616,6 +4779,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3623,6 +5906,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4220,6 +8012,125 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D3C321-D5C9-9843-9F17-7B00A7C37756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68384</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473805</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>155330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720C20EE-146A-3346-B077-4A389B83772B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527538</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>102575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF098FFD-0C53-EF43-8539-C4926654753C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>405421</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>106483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BD9752-22B3-F248-A1F7-7EBBF3D0BCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4771,10 +8682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CABE55-432E-FF4F-9BBA-D1252D1AEEEA}">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView topLeftCell="H13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4782,34 +8693,31 @@
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="4">
         <v>2</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="4">
         <v>4</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="4">
         <v>8</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="4">
         <v>16</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="4">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4819,33 +8727,29 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4">
         <v>256</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>3.1172800000000001E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>1.59078E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>1.0775E-2</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>1.7551500000000001E-2</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="7">
         <v>2.5724E-2</v>
       </c>
-      <c r="P2" s="2">
-        <v>256</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>5.5284300000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="4"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4855,33 +8759,29 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="6">
+      <c r="H3" s="5"/>
+      <c r="I3" s="8">
         <v>512</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>8.3576499999999998E-2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <v>5.5210500000000003E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>2.9599500000000001E-2</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>3.6071800000000001E-2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>4.03337E-2</v>
       </c>
-      <c r="P3" s="6">
-        <v>512</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.20167399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="8"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4891,33 +8791,29 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="2">
+      <c r="H4" s="5"/>
+      <c r="I4" s="4">
         <v>1024</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>0.33261400000000002</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>0.16898299999999999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>8.8263999999999995E-2</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <v>0.116608</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>0.13056999999999999</v>
       </c>
-      <c r="P4" s="2">
-        <v>1024</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.77969999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="4"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4927,33 +8823,29 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2">
+      <c r="H5" s="5"/>
+      <c r="I5" s="4">
         <v>2048</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>1.3329599999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>0.67985200000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>0.36110900000000001</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="7">
         <v>0.425983</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="7">
         <v>0.373664</v>
       </c>
-      <c r="P5" s="2">
-        <v>2048</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3.0670299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="4"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4963,33 +8855,29 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2">
+      <c r="H6" s="5"/>
+      <c r="I6" s="4">
         <v>4096</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>5.3427800000000003</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <v>2.7398400000000001</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>1.4559899999999999</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>1.39727</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>1.14917</v>
       </c>
-      <c r="P6" s="2">
-        <v>4096</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>12.166600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="4"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4999,33 +8887,29 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2">
+      <c r="H7" s="5"/>
+      <c r="I7" s="4">
         <v>8192</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>21.358699999999999</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>10.9565</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>5.8116899999999996</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="7">
         <v>5.2477200000000002</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="7">
         <v>3.9944000000000002</v>
       </c>
-      <c r="P7" s="2">
-        <v>8192</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>48.4437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="4"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5035,41 +8919,37 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2">
+      <c r="H8" s="5"/>
+      <c r="I8" s="4">
         <v>16384</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>85.185000000000002</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>43.6648</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>23.1999</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="7">
         <v>19.469200000000001</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="7">
         <v>15.468299999999999</v>
       </c>
-      <c r="P8" s="2">
-        <v>16384</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>193.202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="4"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5085,26 +8965,26 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>4</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>16</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>256</v>
       </c>
@@ -5123,26 +9003,28 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>256</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>3.1601700000000003E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="7">
         <v>2.9584300000000001E-2</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <v>1.8083999999999999E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>2.51795E-2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <v>2.6558999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="4"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>512</v>
       </c>
@@ -5161,26 +9043,28 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>512</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>8.4712499999999996E-2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="7">
         <v>8.2452200000000003E-2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <v>5.0506799999999998E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>4.2610500000000003E-2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="7">
         <v>5.2753000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="8"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1024</v>
       </c>
@@ -5199,26 +9083,28 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>1024</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <v>0.33107799999999998</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="7">
         <v>0.312635</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <v>0.19601099999999999</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="6">
         <v>0.13623099999999999</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="7">
         <v>0.14366100000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="4"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2048</v>
       </c>
@@ -5237,26 +9123,28 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>2048</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <v>1.341</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="7">
         <v>1.25223</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <v>0.78839400000000004</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>0.65439400000000003</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="7">
         <v>0.51471900000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="4"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4096</v>
       </c>
@@ -5275,26 +9163,28 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>4096</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <v>5.3374600000000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="7">
         <v>5.01898</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="7">
         <v>3.1585299999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="6">
         <v>2.2832300000000001</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="7">
         <v>1.9532099999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="R15" s="4"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8192</v>
       </c>
@@ -5313,27 +9203,28 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>8192</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
         <v>21.342600000000001</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="7">
         <v>20.066299999999998</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="7">
         <v>12.634399999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="6">
         <v>9.1329600000000006</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="7">
         <v>6.3852500000000001</v>
       </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R16" s="4"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16384</v>
       </c>
@@ -5352,36 +9243,37 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>16384</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <v>85.352500000000006</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="7">
         <v>80.054500000000004</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="7">
         <v>50.495899999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="6">
         <v>35.646799999999999</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="7">
         <v>24.376100000000001</v>
       </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R17" s="4"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -5397,27 +9289,26 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <v>8</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>16</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>32</v>
       </c>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>256</v>
       </c>
@@ -5436,27 +9327,28 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8">
         <v>256</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="6">
         <v>5.3338299999999998E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="6">
         <v>1.8291499999999999E-2</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="7">
         <v>9.3167400000000004E-3</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="7">
         <v>1.68138E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="6">
         <v>2.4295299999999999E-2</v>
       </c>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R20" s="4"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>512</v>
       </c>
@@ -5475,27 +9367,28 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
         <v>512</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="6">
         <v>0.16662399999999999</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <v>6.5399499999999999E-2</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="7">
         <v>3.1252000000000002E-2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <v>2.7030499999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="6">
         <v>2.9753999999999999E-2</v>
       </c>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R21" s="8"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1024</v>
       </c>
@@ -5514,27 +9407,28 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
         <v>1024</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="6">
         <v>0.66269900000000004</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <v>0.22245500000000001</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <v>9.9294800000000003E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>6.8146499999999999E-2</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="6">
         <v>4.6341199999999999E-2</v>
       </c>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="R22" s="4"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2048</v>
       </c>
@@ -5553,27 +9447,28 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
         <v>2048</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="6">
         <v>2.6419700000000002</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <v>0.88543799999999995</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="7">
         <v>0.38403599999999999</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>0.217778</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="6">
         <v>0.13099</v>
       </c>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="4"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4096</v>
       </c>
@@ -5592,26 +9487,28 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8">
         <v>4096</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="6">
         <v>10.5564</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="6">
         <v>3.53464</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="7">
         <v>1.5304500000000001</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>0.81157999999999997</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="6">
         <v>0.67227000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="4"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8192</v>
       </c>
@@ -5630,26 +9527,28 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
         <v>8192</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="6">
         <v>42.391800000000003</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="6">
         <v>14.149900000000001</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="7">
         <v>6.1288999999999998</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>3.2166100000000002</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="6">
         <v>2.0387499999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R25" s="4"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>16384</v>
       </c>
@@ -5668,26 +9567,28 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8">
         <v>16384</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="6">
         <v>168.8</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="6">
         <v>56.406399999999998</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="7">
         <v>24.372</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>12.7037</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="6">
         <v>7.4753400000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="4"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5704,7 +9605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>256</v>
       </c>
@@ -5724,7 +9625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>512</v>
       </c>
@@ -5744,7 +9645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1024</v>
       </c>
@@ -5764,7 +9665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2048</v>
       </c>
@@ -6058,7 +9959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1024</v>
       </c>
@@ -6078,7 +9979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2048</v>
       </c>
@@ -6098,7 +9999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4096</v>
       </c>
@@ -6118,7 +10019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>8192</v>
       </c>
@@ -6138,7 +10039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>16384</v>
       </c>
@@ -6158,7 +10059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -6175,7 +10076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>256</v>
       </c>
@@ -6195,7 +10096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>512</v>
       </c>
@@ -6215,7 +10116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1024</v>
       </c>
@@ -6235,7 +10136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2048</v>
       </c>
@@ -6255,7 +10156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4096</v>
       </c>
@@ -6275,7 +10176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8192</v>
       </c>
@@ -6294,8 +10195,26 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I61" s="9">
+        <v>256</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61">
+        <v>256</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61">
+        <v>4.1471599999999997E-2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>16384</v>
       </c>
@@ -6314,8 +10233,46 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I62" s="9">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62">
+        <v>512</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>0.16469800000000001</v>
+      </c>
+      <c r="N62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="I63" s="9">
+        <v>1024</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <v>1024</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63">
+        <v>0.657111</v>
+      </c>
+      <c r="N63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -6331,8 +10288,26 @@
       <c r="E64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I64" s="9">
+        <v>2048</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64">
+        <v>2048</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64">
+        <v>2.6249600000000002</v>
+      </c>
+      <c r="N64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>256</v>
       </c>
@@ -6351,8 +10326,26 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I65" s="9">
+        <v>4096</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65">
+        <v>4096</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65">
+        <v>10.5015</v>
+      </c>
+      <c r="N65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>512</v>
       </c>
@@ -6371,8 +10364,26 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I66" s="9">
+        <v>8192</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <v>8192</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66">
+        <v>41.997</v>
+      </c>
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1024</v>
       </c>
@@ -6391,8 +10402,26 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I67" s="9">
+        <v>16384</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67">
+        <v>16384</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67">
+        <v>167.971</v>
+      </c>
+      <c r="N67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2048</v>
       </c>
@@ -6411,8 +10440,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4096</v>
       </c>
@@ -6432,7 +10462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8192</v>
       </c>
@@ -6452,7 +10482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>16384</v>
       </c>
@@ -6472,7 +10502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -6489,7 +10519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>256</v>
       </c>
@@ -6509,7 +10539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>512</v>
       </c>
@@ -6529,7 +10559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1024</v>
       </c>
@@ -6549,7 +10579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2048</v>
       </c>
@@ -6569,7 +10599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4096</v>
       </c>
@@ -6589,7 +10619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8192</v>
       </c>
@@ -6609,7 +10639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>16384</v>
       </c>
@@ -7579,4 +11609,1683 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D2BB1-424A-7C46-949D-08AF9B491A9A}">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4">
+        <v>16</v>
+      </c>
+      <c r="M1" s="4">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>4</v>
+      </c>
+      <c r="R1" s="4">
+        <v>8</v>
+      </c>
+      <c r="S1" s="4">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>256</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3.1172800000000001E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.59078E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.0775E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.7551500000000001E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.5724E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>256</v>
+      </c>
+      <c r="I2" s="2">
+        <f>$B40/B2</f>
+        <v>1.3303777652312272</v>
+      </c>
+      <c r="J2" s="2">
+        <f>$B40/C2</f>
+        <v>2.6069978249663688</v>
+      </c>
+      <c r="K2" s="2">
+        <f>$B40/D2</f>
+        <v>3.848872389791183</v>
+      </c>
+      <c r="L2" s="2">
+        <f>$B40/E2</f>
+        <v>2.3628521778765346</v>
+      </c>
+      <c r="M2" s="2">
+        <f>$B40/F2</f>
+        <v>1.6121754004042916</v>
+      </c>
+      <c r="O2" s="4">
+        <v>256</v>
+      </c>
+      <c r="P2" s="2">
+        <f>I2/$P1</f>
+        <v>0.6651888826156136</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" ref="Q2:T2" si="0">J2/Q1</f>
+        <v>0.6517494562415922</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48110904872389787</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14767826111728341</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0380481262634114E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>512</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8.3576499999999998E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.5210500000000003E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.9599500000000001E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3.6071800000000001E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4.03337E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>512</v>
+      </c>
+      <c r="I3" s="2">
+        <f>$B41/B3</f>
+        <v>1.9706257141660637</v>
+      </c>
+      <c r="J3" s="2">
+        <f>$B41/C3</f>
+        <v>2.9830919843145778</v>
+      </c>
+      <c r="K3" s="2">
+        <f>$B41/D3</f>
+        <v>5.5642156117501989</v>
+      </c>
+      <c r="L3" s="2">
+        <f>$B41/E3</f>
+        <v>4.5658381339439673</v>
+      </c>
+      <c r="M3" s="2">
+        <f>$B41/F3</f>
+        <v>4.0833843659272517</v>
+      </c>
+      <c r="O3" s="8">
+        <v>512</v>
+      </c>
+      <c r="P3" s="2">
+        <f>I3/P1</f>
+        <v>0.98531285708303185</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:T3" si="1">J3/Q1</f>
+        <v>0.74577299607864445</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.69552695146877486</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28536488337149796</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12760576143522662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33261400000000002</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.16898299999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.8263999999999995E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.116608</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.13056999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1024</v>
+      </c>
+      <c r="I4" s="2">
+        <f>$B42/B4</f>
+        <v>1.9755963368950193</v>
+      </c>
+      <c r="J4" s="2">
+        <f>$B42/C4</f>
+        <v>3.8886219323837312</v>
+      </c>
+      <c r="K4" s="2">
+        <f>$B42/D4</f>
+        <v>7.4448359467053393</v>
+      </c>
+      <c r="L4" s="2">
+        <f>$B42/E4</f>
+        <v>5.6352137074643247</v>
+      </c>
+      <c r="M4" s="2">
+        <f>$B42/F4</f>
+        <v>5.0326338362564149</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1024</v>
+      </c>
+      <c r="P4" s="2">
+        <f>I4/I1</f>
+        <v>0.98779816844750967</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:T4" si="2">J4/J1</f>
+        <v>0.9721554830959328</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93060449333816742</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35220085671652029</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15726980738301297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.3329599999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.67985200000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.36110900000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.425983</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.373664</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2048</v>
+      </c>
+      <c r="I5" s="2">
+        <f>$B43/B5</f>
+        <v>1.9692713959908776</v>
+      </c>
+      <c r="J5" s="2">
+        <f>$B43/C5</f>
+        <v>3.8610756458758675</v>
+      </c>
+      <c r="K5" s="2">
+        <f>$B43/D5</f>
+        <v>7.2691624966422879</v>
+      </c>
+      <c r="L5" s="2">
+        <f>$B43/E5</f>
+        <v>6.1621238406227485</v>
+      </c>
+      <c r="M5" s="2">
+        <f>$B43/F5</f>
+        <v>7.024920784448061</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2048</v>
+      </c>
+      <c r="P5" s="2">
+        <f>I5/P1</f>
+        <v>0.98463569799543882</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ref="Q5:T5" si="3">J5/Q1</f>
+        <v>0.96526891146896687</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.90864531208028598</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.38513274003892178</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21952877451400191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.3427800000000003</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.7398400000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.4559899999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.39727</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.14917</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4096</v>
+      </c>
+      <c r="I6" s="2">
+        <f>$B44/B6</f>
+        <v>1.9655497699699407</v>
+      </c>
+      <c r="J6" s="2">
+        <f>$B44/C6</f>
+        <v>3.8328880518570427</v>
+      </c>
+      <c r="K6" s="2">
+        <f>$B44/D6</f>
+        <v>7.2126182185317216</v>
+      </c>
+      <c r="L6" s="2">
+        <f>$B44/E6</f>
+        <v>7.5157270964094272</v>
+      </c>
+      <c r="M6" s="2">
+        <f>$B44/F6</f>
+        <v>9.1383346241200165</v>
+      </c>
+      <c r="O6" s="4">
+        <v>4096</v>
+      </c>
+      <c r="P6" s="2">
+        <f>I6/P1</f>
+        <v>0.98277488498497034</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ref="Q6:T6" si="4">J6/Q1</f>
+        <v>0.95822201296426068</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.9015772773164652</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4697329435255892</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28557295700375052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>8192</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21.358699999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.9565</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.8116899999999996</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5.2477200000000002</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3.9944000000000002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8192</v>
+      </c>
+      <c r="I7" s="2">
+        <f>$B45/B7</f>
+        <v>1.9662713554663909</v>
+      </c>
+      <c r="J7" s="2">
+        <f>$B45/C7</f>
+        <v>3.8330671291014466</v>
+      </c>
+      <c r="K7" s="2">
+        <f>$B45/D7</f>
+        <v>7.22629734208122</v>
+      </c>
+      <c r="L7" s="2">
+        <f>$B45/E7</f>
+        <v>8.0029041183599734</v>
+      </c>
+      <c r="M7" s="2">
+        <f>$B45/F7</f>
+        <v>10.513969557380332</v>
+      </c>
+      <c r="O7" s="4">
+        <v>8192</v>
+      </c>
+      <c r="P7" s="2">
+        <f>I7/P1</f>
+        <v>0.98313567773319543</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7:T7" si="5">J7/Q1</f>
+        <v>0.95826678227536166</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9032871677601525</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.50018150739749834</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.32856154866813536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>16384</v>
+      </c>
+      <c r="B8" s="6">
+        <v>85.185000000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43.6648</v>
+      </c>
+      <c r="D8" s="6">
+        <v>23.1999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>19.469200000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>15.468299999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16384</v>
+      </c>
+      <c r="I8" s="2">
+        <f>$B46/B8</f>
+        <v>1.9718377648647063</v>
+      </c>
+      <c r="J8" s="2">
+        <f>$B46/C8</f>
+        <v>3.8468285667173561</v>
+      </c>
+      <c r="K8" s="2">
+        <f>$B46/D8</f>
+        <v>7.2401605179332673</v>
+      </c>
+      <c r="L8" s="2">
+        <f>$B46/E8</f>
+        <v>8.6275245002362713</v>
+      </c>
+      <c r="M8" s="2">
+        <f>$B46/F8</f>
+        <v>10.859047212686592</v>
+      </c>
+      <c r="O8" s="4">
+        <v>16384</v>
+      </c>
+      <c r="P8" s="2">
+        <f>I8/P1</f>
+        <v>0.98591888243235315</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" ref="Q8:T8" si="6">J8/Q1</f>
+        <v>0.96170714167933902</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.90502006474165841</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.53922028126476695</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.33934522539645601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4">
+        <v>16</v>
+      </c>
+      <c r="M10" s="4">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>8</v>
+      </c>
+      <c r="S10" s="4">
+        <v>16</v>
+      </c>
+      <c r="T10" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>256</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.1601700000000003E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.9584300000000001E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.8083999999999999E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.51795E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.6558999999999999E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>256</v>
+      </c>
+      <c r="I11" s="2">
+        <f>$B40/B11</f>
+        <v>1.3123218054724901</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:M11" si="7">$B40/C11</f>
+        <v>1.4018110957501106</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="7"/>
+        <v>2.293275823932758</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.6470382652554656</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5614895139124214</v>
+      </c>
+      <c r="O11" s="4">
+        <v>256</v>
+      </c>
+      <c r="P11" s="2">
+        <f>I11/P10</f>
+        <v>0.65616090273624506</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" ref="Q11" si="8">J11/Q10</f>
+        <v>0.35045277393752766</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11" si="9">K11/R10</f>
+        <v>0.28665947799159475</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" ref="S11" si="10">L11/S10</f>
+        <v>0.1029398915784666</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" ref="T11" si="11">M11/T10</f>
+        <v>4.8796547309763169E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>512</v>
+      </c>
+      <c r="B12" s="6">
+        <v>8.4712499999999996E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8.2452200000000003E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.0506799999999998E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.2610500000000003E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5.2753000000000001E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>512</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I17" si="12">$B41/B12</f>
+        <v>1.9441994983030841</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J17" si="13">$B41/C12</f>
+        <v>1.9974967314395493</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12:K17" si="14">$B41/D12</f>
+        <v>3.2609074421662037</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:L17" si="15">$B41/E12</f>
+        <v>3.8651975452059939</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:M17" si="16">$B41/F12</f>
+        <v>3.1220594089435671</v>
+      </c>
+      <c r="O12" s="8">
+        <v>512</v>
+      </c>
+      <c r="P12" s="2">
+        <f>I12/P10</f>
+        <v>0.97209974915154207</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ref="Q12" si="17">J12/Q10</f>
+        <v>0.49937418285988733</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12" si="18">K12/R10</f>
+        <v>0.40761343027077546</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" ref="S12" si="19">L12/S10</f>
+        <v>0.24157484657537462</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" ref="T12" si="20">M12/T10</f>
+        <v>9.7564356529486473E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.33107799999999998</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.312635</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.19601099999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.13623099999999999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.14366100000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1024</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9847618990086928</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1018472020087322</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3524189968930318</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="15"/>
+        <v>4.823505663175049</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="16"/>
+        <v>4.5740388832042091</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1024</v>
+      </c>
+      <c r="P13" s="2">
+        <f>I13/I10</f>
+        <v>0.99238094950434641</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" ref="Q13" si="21">J13/J10</f>
+        <v>0.52546180050218305</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13" si="22">K13/K10</f>
+        <v>0.41905237461162897</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" ref="S13" si="23">L13/L10</f>
+        <v>0.30146910394844056</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13" si="24">M13/M10</f>
+        <v>0.14293871510013154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.341</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.25223</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.78839400000000004</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.65439400000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.51471900000000004</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2048</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9574645786726326</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0962283286616676</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3295027613097004</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="15"/>
+        <v>4.0112837220390167</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="16"/>
+        <v>5.0997923138644579</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2048</v>
+      </c>
+      <c r="P14" s="2">
+        <f>I14/P10</f>
+        <v>0.97873228933631629</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" ref="Q14" si="25">J14/Q10</f>
+        <v>0.52405708216541691</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14" si="26">K14/R10</f>
+        <v>0.41618784516371254</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" ref="S14" si="27">L14/S10</f>
+        <v>0.25070523262743855</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" ref="T14" si="28">M14/T10</f>
+        <v>0.15936850980826431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.3374600000000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.01898</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.1585299999999998</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2832300000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.9532099999999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4096</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9675088899963653</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0923574112668311</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3248061598275149</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="15"/>
+        <v>4.5994052285577887</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="16"/>
+        <v>5.3765340132397439</v>
+      </c>
+      <c r="O15" s="4">
+        <v>4096</v>
+      </c>
+      <c r="P15" s="2">
+        <f>I15/P10</f>
+        <v>0.98375444499818265</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ref="Q15" si="29">J15/Q10</f>
+        <v>0.52308935281670776</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" ref="R15" si="30">K15/R10</f>
+        <v>0.41560076997843937</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" ref="S15" si="31">L15/S10</f>
+        <v>0.28746282678486179</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" ref="T15" si="32">M15/T10</f>
+        <v>0.168016687913742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8192</v>
+      </c>
+      <c r="B16" s="6">
+        <v>21.342600000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <v>20.066299999999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12.634399999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>9.1329600000000006</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.3852500000000001</v>
+      </c>
+      <c r="H16" s="8">
+        <v>8192</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="12"/>
+        <v>1.9677546315819066</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0929119967308374</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="14"/>
+        <v>3.324020135503071</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="15"/>
+        <v>4.5983996426131286</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="16"/>
+        <v>6.5771896166947261</v>
+      </c>
+      <c r="O16" s="4">
+        <v>8192</v>
+      </c>
+      <c r="P16" s="2">
+        <f>I16/P10</f>
+        <v>0.98387731579095328</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" ref="Q16" si="33">J16/Q10</f>
+        <v>0.52322799918270935</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" ref="R16" si="34">K16/R10</f>
+        <v>0.41550251693788387</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" ref="S16" si="35">L16/S10</f>
+        <v>0.28739997766332054</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" ref="T16" si="36">M16/T10</f>
+        <v>0.20553717552171019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16384</v>
+      </c>
+      <c r="B17" s="6">
+        <v>85.352500000000006</v>
+      </c>
+      <c r="C17" s="7">
+        <v>80.054500000000004</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50.495899999999999</v>
+      </c>
+      <c r="E17" s="6">
+        <v>35.646799999999999</v>
+      </c>
+      <c r="F17" s="7">
+        <v>24.376100000000001</v>
+      </c>
+      <c r="H17" s="8">
+        <v>16384</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="12"/>
+        <v>1.967968132157816</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0982080957347806</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="14"/>
+        <v>3.3264284823124255</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="15"/>
+        <v>4.7120919689845939</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="16"/>
+        <v>6.8908069789671025</v>
+      </c>
+      <c r="O17" s="4">
+        <v>16384</v>
+      </c>
+      <c r="P17" s="2">
+        <f>I17/P10</f>
+        <v>0.98398406607890798</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17" si="37">J17/Q10</f>
+        <v>0.52455202393369516</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" ref="R17" si="38">K17/R10</f>
+        <v>0.41580356028905319</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" ref="S17" si="39">L17/S10</f>
+        <v>0.29450574806153712</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" ref="T17" si="40">M17/T10</f>
+        <v>0.21533771809272195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>8</v>
+      </c>
+      <c r="L19" s="4">
+        <v>16</v>
+      </c>
+      <c r="M19" s="4">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>4</v>
+      </c>
+      <c r="R19" s="4">
+        <v>8</v>
+      </c>
+      <c r="S19" s="4">
+        <v>16</v>
+      </c>
+      <c r="T19" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>256</v>
+      </c>
+      <c r="B20" s="6">
+        <v>5.3338299999999998E-2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.8291499999999999E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>9.3167400000000004E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.68138E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2.4295299999999999E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>256</v>
+      </c>
+      <c r="I20" s="2">
+        <f>$B40/B20</f>
+        <v>0.77752009344129824</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ref="J20:M20" si="41">$B40/C20</f>
+        <v>2.2672607495284693</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="41"/>
+        <v>4.4512994888770105</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="41"/>
+        <v>2.4665215477762312</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="41"/>
+        <v>1.7069803624569362</v>
+      </c>
+      <c r="O20" s="4">
+        <v>256</v>
+      </c>
+      <c r="P20" s="2">
+        <f>I20/P19</f>
+        <v>0.38876004672064912</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" ref="Q20" si="42">J20/Q19</f>
+        <v>0.56681518738211734</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" ref="R20" si="43">K20/R19</f>
+        <v>0.55641243610962632</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" ref="S20" si="44">L20/S19</f>
+        <v>0.15415759673601445</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" ref="T20" si="45">M20/T19</f>
+        <v>5.3343136326779256E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>512</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.16662399999999999</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6.5399499999999999E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.1252000000000002E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>2.7030499999999999E-2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2.9753999999999999E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <v>512</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" ref="I21:I26" si="46">$B41/B21</f>
+        <v>0.98844104090647211</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ref="J21:J26" si="47">$B41/C21</f>
+        <v>2.5183372961566985</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" ref="K21:K26" si="48">$B41/D21</f>
+        <v>5.2699987200819152</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L26" si="49">$B41/E21</f>
+        <v>6.0930430439688505</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ref="M21:M26" si="50">$B41/F21</f>
+        <v>5.5353229817839624</v>
+      </c>
+      <c r="O21" s="8">
+        <v>512</v>
+      </c>
+      <c r="P21" s="2">
+        <f>I21/P19</f>
+        <v>0.49422052045323606</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21" si="51">J21/Q19</f>
+        <v>0.62958432403917464</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" ref="R21" si="52">K21/R19</f>
+        <v>0.6587498400102394</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" ref="S21" si="53">L21/S19</f>
+        <v>0.38081519024805316</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" ref="T21" si="54">M21/T19</f>
+        <v>0.17297884318074883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>1024</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.66269900000000004</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.22245500000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9.9294800000000003E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.8146499999999999E-2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4.6341199999999999E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1024</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="46"/>
+        <v>0.99156781585606735</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9539052842147848</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="48"/>
+        <v>6.617778574507426</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="49"/>
+        <v>9.6426228786511423</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="50"/>
+        <v>14.179844285430676</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1024</v>
+      </c>
+      <c r="P22" s="2">
+        <f>I22/I19</f>
+        <v>0.49578390792803367</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" ref="Q22" si="55">J22/J19</f>
+        <v>0.73847632105369621</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" ref="R22" si="56">K22/K19</f>
+        <v>0.82722232181342825</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22" si="57">L22/L19</f>
+        <v>0.60266392991569639</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" ref="T22" si="58">M22/M19</f>
+        <v>0.44312013391970861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>2048</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.6419700000000002</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.88543799999999995</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.38403599999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.217778</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.13099</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2048</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="46"/>
+        <v>0.99356162257709213</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9645892767195448</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="48"/>
+        <v>6.8351925340332684</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="49"/>
+        <v>12.053375455739332</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="50"/>
+        <v>20.039392320024433</v>
+      </c>
+      <c r="O23" s="4">
+        <v>2048</v>
+      </c>
+      <c r="P23" s="2">
+        <f>I23/P19</f>
+        <v>0.49678081128854606</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" ref="Q23" si="59">J23/Q19</f>
+        <v>0.74114731917988619</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" ref="R23" si="60">K23/R19</f>
+        <v>0.85439906675415855</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" ref="S23" si="61">L23/S19</f>
+        <v>0.75333596598370822</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" ref="T23" si="62">M23/T19</f>
+        <v>0.62623101000076353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>4096</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10.5564</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3.53464</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.5304500000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.81157999999999997</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.67227000000000003</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4096</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="46"/>
+        <v>0.99479936341934749</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9710239232283908</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="48"/>
+        <v>6.8617073409781435</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="49"/>
+        <v>12.939574656842209</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="50"/>
+        <v>15.620955865946717</v>
+      </c>
+      <c r="O24" s="4">
+        <v>4096</v>
+      </c>
+      <c r="P24" s="2">
+        <f>I24/P19</f>
+        <v>0.49739968170967375</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" ref="Q24" si="63">J24/Q19</f>
+        <v>0.7427559808070977</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" ref="R24" si="64">K24/R19</f>
+        <v>0.85771341762226794</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" ref="S24" si="65">L24/S19</f>
+        <v>0.80872341605263809</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" ref="T24" si="66">M24/T19</f>
+        <v>0.48815487081083492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>8192</v>
+      </c>
+      <c r="B25" s="6">
+        <v>42.391800000000003</v>
+      </c>
+      <c r="C25" s="6">
+        <v>14.149900000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6.1288999999999998</v>
+      </c>
+      <c r="E25" s="7">
+        <v>3.2166100000000002</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2.0387499999999998</v>
+      </c>
+      <c r="H25" s="8">
+        <v>8192</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="46"/>
+        <v>0.99068687812265577</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9680068410377456</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="48"/>
+        <v>6.8522899704677842</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="49"/>
+        <v>13.056292183385613</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="50"/>
+        <v>20.599386879215206</v>
+      </c>
+      <c r="O25" s="4">
+        <v>8192</v>
+      </c>
+      <c r="P25" s="2">
+        <f>I25/P19</f>
+        <v>0.49534343906132788</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25" si="67">J25/Q19</f>
+        <v>0.7420017102594364</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" ref="R25" si="68">K25/R19</f>
+        <v>0.85653624630847303</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" ref="S25" si="69">L25/S19</f>
+        <v>0.81601826146160084</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" ref="T25" si="70">M25/T19</f>
+        <v>0.6437308399754752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>16384</v>
+      </c>
+      <c r="B26" s="6">
+        <v>168.8</v>
+      </c>
+      <c r="C26" s="6">
+        <v>56.406399999999998</v>
+      </c>
+      <c r="D26" s="7">
+        <v>24.372</v>
+      </c>
+      <c r="E26" s="7">
+        <v>12.7037</v>
+      </c>
+      <c r="F26" s="6">
+        <v>7.4753400000000001</v>
+      </c>
+      <c r="H26" s="8">
+        <v>16384</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="46"/>
+        <v>0.99508886255924167</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="47"/>
+        <v>2.9778713053837862</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="48"/>
+        <v>6.8919661907106518</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="49"/>
+        <v>13.222210851956518</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="50"/>
+        <v>22.470014741804388</v>
+      </c>
+      <c r="O26" s="4">
+        <v>16384</v>
+      </c>
+      <c r="P26" s="2">
+        <f>I26/P19</f>
+        <v>0.49754443127962084</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" ref="Q26" si="71">J26/Q19</f>
+        <v>0.74446782634594655</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" ref="R26" si="72">K26/R19</f>
+        <v>0.86149577383883147</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" ref="S26" si="73">L26/S19</f>
+        <v>0.82638817824728239</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" ref="T26" si="74">M26/T19</f>
+        <v>0.70218796068138711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="J27" s="9"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J30" s="8"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J32" s="4"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J33" s="4"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>256</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.1471599999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>512</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.16469800000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.657111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2048</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2.6249600000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>4096</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10.5015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>8192</v>
+      </c>
+      <c r="B45" s="3">
+        <v>41.997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>16384</v>
+      </c>
+      <c r="B46" s="3">
+        <v>167.971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/hw2/analysis/Book1.xlsx
+++ b/hw2/analysis/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyu/Dropbox/eecs224/EECS224/hw2/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED2AD49-C21D-8048-A436-EFAC1141FA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD0536-9654-804B-A293-A8C7F07548F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-23540" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
+    <workbookView xWindow="-4700" yWindow="-23540" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,6 +274,12 @@
               <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
               <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
               <a:t>(32</a:t>
@@ -1042,6 +1048,12 @@
               <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
               <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
               <a:t>(8</a:t>
@@ -1810,6 +1822,12 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>(2</a:t>
@@ -2572,7 +2590,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>precesses</a:t>
+              <a:t>processes</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
@@ -4008,7 +4026,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>precesses</a:t>
+              <a:t>processes</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
@@ -7921,16 +7939,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>786425</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100624</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>977</xdr:rowOff>
+      <xdr:rowOff>115276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361462</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>107460</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>545124</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7957,16 +7975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>405422</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>106483</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7995,16 +8013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>405423</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>106483</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8076,16 +8094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>527538</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>363313</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>102575</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>759470</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>110357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8114,16 +8132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>205153</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>538168</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>405421</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122469</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>106483</xdr:rowOff>
+      <xdr:rowOff>150276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8684,8 +8702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CABE55-432E-FF4F-9BBA-D1252D1AEEEA}">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11615,8 +11633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450D2BB1-424A-7C46-949D-08AF9B491A9A}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
